--- a/Plancheck/plancheck_data/check_protocol/STEC rein 5F.xlsx
+++ b/Plancheck/plancheck_data/check_protocol/STEC rein 5F.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="202">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -505,18 +505,6 @@
     <t>V25Gy&lt;10cc</t>
   </si>
   <si>
-    <t>D0,5cc&lt;50Gy</t>
-  </si>
-  <si>
-    <t>Foie-ITV</t>
-  </si>
-  <si>
-    <t>V10Gy&lt;70%</t>
-  </si>
-  <si>
-    <t>D50%&lt;15,2Gy</t>
-  </si>
-  <si>
     <t>D0,5cc&lt;38Gy</t>
   </si>
   <si>
@@ -527,6 +515,120 @@
   </si>
   <si>
     <t>V32Gy&lt;30cc</t>
+  </si>
+  <si>
+    <t>Plexus+3</t>
+  </si>
+  <si>
+    <t>D0,1cc&lt;32Gy</t>
+  </si>
+  <si>
+    <t>V30Gy&lt;3cc</t>
+  </si>
+  <si>
+    <t>Coeur</t>
+  </si>
+  <si>
+    <t>D0,5cc&lt;29Gy</t>
+  </si>
+  <si>
+    <t>PBT</t>
+  </si>
+  <si>
+    <t>Trachee</t>
+  </si>
+  <si>
+    <t>Poumons-ITV</t>
+  </si>
+  <si>
+    <t>D1500cc&lt;12,5Gy</t>
+  </si>
+  <si>
+    <t>D1000cc&lt;13,5Gy</t>
+  </si>
+  <si>
+    <t>Œsophage</t>
+  </si>
+  <si>
+    <t>D0,5cc&lt;34Gy</t>
+  </si>
+  <si>
+    <t>Larynx</t>
+  </si>
+  <si>
+    <t>Pharynx</t>
+  </si>
+  <si>
+    <t>V33Gy&lt;1cc</t>
+  </si>
+  <si>
+    <t>V25Gy&lt;5cc</t>
+  </si>
+  <si>
+    <t>V15Gy&lt;9cc</t>
+  </si>
+  <si>
+    <t>Grele</t>
+  </si>
+  <si>
+    <t>mean&lt;10Gy</t>
+  </si>
+  <si>
+    <t>V10Gy&lt;45%</t>
+  </si>
+  <si>
+    <t>Rein unique</t>
+  </si>
+  <si>
+    <t>TeteFemorDte</t>
+  </si>
+  <si>
+    <t>V30Gy&lt;10cc</t>
+  </si>
+  <si>
+    <t>TeteFemorGche</t>
+  </si>
+  <si>
+    <t>Canal Med</t>
+  </si>
+  <si>
+    <t>D0,1cc&lt;30Gy</t>
+  </si>
+  <si>
+    <t>V22,5Gy&lt;0,35cc</t>
+  </si>
+  <si>
+    <t>QueueDeCheval</t>
+  </si>
+  <si>
+    <t>V30Gy&lt;5cc</t>
+  </si>
+  <si>
+    <t>Tronc Cerebral</t>
+  </si>
+  <si>
+    <t>D0,1cc&lt;31Gy</t>
+  </si>
+  <si>
+    <t>V26Gy&lt;1cc</t>
+  </si>
+  <si>
+    <t>D0,5cc&lt;39,5Gy</t>
+  </si>
+  <si>
+    <t>Aorte GtsVx</t>
+  </si>
+  <si>
+    <t>D0,5cc&lt;53Gy</t>
+  </si>
+  <si>
+    <t>D100%&gt;98%</t>
+  </si>
+  <si>
+    <t>D0,1cc&lt;140%</t>
+  </si>
+  <si>
+    <t>D100%&gt;95%</t>
   </si>
 </sst>
 </file>
@@ -2351,7 +2453,7 @@
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -2528,7 +2630,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2745,10 +2847,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2799,139 +2901,442 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>158</v>
+        <v>164</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>159</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>159</v>
-      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="H5" s="12"/>
+      <c r="A5" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="H6" s="12"/>
+      <c r="A6" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="H7" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="H8" s="12"/>
+        <v>174</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="H9" s="12"/>
+      <c r="A9" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="H10" s="12"/>
+      <c r="A10" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="H11" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="B28" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
